--- a/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
+++ b/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>The number of susceptibles left at the end (Part B)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T2R2</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>The number of susceptibles left at the end (Part C)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>The number of susceptibles left at the end (Part A)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part A)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -492,23 +478,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T3R2</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>The number of susceptibles left at the end (Part B)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -522,23 +505,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>The number of susceptibles left at the end (Part B)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -552,23 +532,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T4R2</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>The number of susceptibles left at the end (Part C)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -582,23 +559,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>5</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>The number of susceptibles left at the end</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -612,23 +586,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>The number of susceptibles left at the end (Part B)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -642,23 +613,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T6R2</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T6R2</t>
+          <t>The number of susceptibles left at the end (Part C)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>
@@ -672,23 +640,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Complex ID control scenarios</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>7</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>The total number infected at the end (Part B)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>The total number infected at the end (Part B)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>Report rounded integer</t>
         </is>

--- a/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
+++ b/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,22 +397,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>T1R1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
+          <t>Peak/Maximum number of infected symptomatic (I).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -429,17 +429,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T2R2</t>
+          <t>T2R1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
+          <t>Number susceptibles remaining at end of quarantine simulation.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -461,12 +461,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part A)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -478,22 +478,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T3R2</t>
+          <t>T4R1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>T5R1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T4R2</t>
+          <t>T6R1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -559,22 +559,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T5R1</t>
+          <t>T6R2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end</t>
+          <t>Max/peak of E during simulation.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>T7R1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part B)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T6R2</t>
+          <t>T7R2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The number of susceptibles left at the end (Part C)</t>
+          <t>Max/peak of E during simulation.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -640,22 +640,211 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T7R1</t>
+          <t>T8R1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The total number infected at the end (Part B)</t>
+          <t>Number susceptibles remaining at end of simulation.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Report rounded integer</t>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T8R2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Max/peak of E during simulation.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T9R1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Number susceptibles remaining at end of simulation.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T9R2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Max/peak of E during simulation.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>T11R1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Number susceptible hosts remaining at end of simulation with control.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>T11R2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Number susceptible vectors remaining at end of simulation with control.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>T12R1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Number susceptible hosts remaining at end of simulation with both transmission rates reduced.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dsaide_idcontrolcomplex</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>T12R2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Number susceptible vectors remaining at end of simulation with both transmission rates reduced.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>

--- a/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
+++ b/docs/quizsheets/dsaide_idcontrolcomplex.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Number susceptibles remaining at end of quarantine simulation.</t>
+          <t>Number susceptibles remaining at end of isolation simulation.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
